--- a/Физика/лабы/1.03.xlsx
+++ b/Физика/лабы/1.03.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Таня\Desktop\работа\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulag\Documents\ITMO\Физика\лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0097FE4B-3A98-443F-A7B3-F1050169C8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E846D1B8-61F0-40A9-9A54-9D6B02DDF697}</author>
     <author>tc={9E122D61-305E-4E10-A08E-360387F61F72}</author>
@@ -53,225 +54,108 @@
     <author>tc={D0791687-C437-4018-936C-3C812ED3B162}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить графу</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить графу</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить графу</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="3" shapeId="0">
+    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить графу</t>
-        </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="4" shapeId="0">
+    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="5" shapeId="0">
+    <comment ref="K1" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="6" shapeId="0">
+    <comment ref="L1" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="7" shapeId="0">
+    <comment ref="M1" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="8" shapeId="0">
+    <comment ref="N1" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="9" shapeId="0">
+    <comment ref="P3" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="10" shapeId="0">
+    <comment ref="P4" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="11" shapeId="0">
+    <comment ref="P6" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="12" shapeId="0">
+    <comment ref="P7" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -279,7 +163,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={7D891D7B-D351-47BA-B1DD-0842E49C924A}</author>
     <author>tc={FBBBA779-D982-4256-97FB-EAD1EA13BC7C}</author>
@@ -296,225 +180,108 @@
     <author>tc={70E48EF7-FB84-4CBB-AA46-0F39530A5362}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить графу</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить графу</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить графу</t>
-        </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="3" shapeId="0">
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить графу</t>
-        </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="4" shapeId="0">
+    <comment ref="H1" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="5" shapeId="0">
+    <comment ref="I1" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="6" shapeId="0">
+    <comment ref="J1" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="7" shapeId="0">
+    <comment ref="K1" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="8" shapeId="0">
+    <comment ref="L1" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="9" shapeId="0">
+    <comment ref="N2" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="10" shapeId="0">
+    <comment ref="P2" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="11" shapeId="0">
+    <comment ref="N4" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="12" shapeId="0">
+    <comment ref="P4" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Считается автоматически</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -522,7 +289,7 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={EF5131D6-C961-40C4-884F-DF59E0AB566E}</author>
     <author>tc={ABC7796B-9940-4546-B478-A3304622A070}</author>
@@ -546,344 +313,164 @@
     <author>tc={36D15A0E-250D-420A-879F-DAE373A30122}</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить ячейки</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="1" shapeId="0">
+    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить ячейки</t>
-        </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="2" shapeId="0">
+    <comment ref="E6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполнить ячейки</t>
-        </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="3" shapeId="0">
+    <comment ref="H6" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="4" shapeId="0">
+    <comment ref="I6" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="5" shapeId="0">
+    <comment ref="J6" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="6" shapeId="0">
+    <comment ref="L6" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="7" shapeId="0">
+    <comment ref="M6" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="8" shapeId="0">
+    <comment ref="N6" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="9" shapeId="0">
+    <comment ref="O6" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="10" shapeId="0">
+    <comment ref="R6" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="11" shapeId="0">
+    <comment ref="S6" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="12" shapeId="0">
+    <comment ref="T6" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="13" shapeId="0">
+    <comment ref="P7" authorId="13" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="Q7" authorId="14" shapeId="0">
+    <comment ref="Q7" authorId="14" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="15" shapeId="0">
+    <comment ref="P9" authorId="15" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="16" shapeId="0">
+    <comment ref="Q9" authorId="16" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="17" shapeId="0">
+    <comment ref="P13" authorId="17" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="S18" authorId="18" shapeId="0">
+    <comment ref="S18" authorId="18" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="T18" authorId="19" shapeId="0">
+    <comment ref="T18" authorId="19" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -891,44 +478,26 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B64AC050-5738-4A25-BED2-030038B09D49}</author>
     <author>tc={4C3F5663-EC18-4861-9F38-8FBFA374B15D}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1" shapeId="0">
+    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Цепочка примечаний]
+        <t>[Цепочка примечаний]
 Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
 Комментарий:
     Заполняется автоматически</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1127,7 +696,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1863,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1899,23 +1468,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1973,13 +1541,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -2064,7 +1632,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2152,7 +1720,37 @@
             <c:forward val="3.0000000000000006E-2"/>
             <c:backward val="3.0000000000000006E-2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2161,25 +1759,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2191,25 +1789,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17.739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>33.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>40.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>47.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>55.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>59.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,7 +1885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="970465231"/>
@@ -2349,7 +1947,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="970467311"/>
@@ -2390,7 +1988,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2417,13 +2015,26 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10709561889559127"/>
+          <c:y val="9.1453582845173881E-2"/>
+          <c:w val="0.84717348927875247"/>
+          <c:h val="0.76777427464879133"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Без утяжелителя</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -2458,7 +2069,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:forward val="7.0000000000000007E-2"/>
-            <c:backward val="7.0000000000000007E-2"/>
+            <c:backward val="0.17900000000000002"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -2469,25 +2080,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,25 +2110,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17.739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>33.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>40.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>47.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>55.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>59.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,7 +2144,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:v>С утяжелителем</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2569,7 +2180,7 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:forward val="7.0000000000000007E-2"/>
-            <c:backward val="7.0000000000000007E-2"/>
+            <c:backward val="3.9900000000000005E-2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -2580,25 +2191,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,25 +2221,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>32.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>40.479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>48.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>56.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>64.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,6 +2297,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>ускорение</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> a, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>м/с</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>^2</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2720,7 +2399,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="753180543"/>
@@ -2762,6 +2441,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>сила натяжения</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> нити </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>T, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>H</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2796,7 +2547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="753183455"/>
@@ -2811,6 +2562,55 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10357374918778427"/>
+          <c:y val="1.9371190086318907E-2"/>
+          <c:w val="0.82365172189733582"/>
+          <c:h val="5.4674276840421157E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2837,7 +2637,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4008,8 +3808,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4469,21 +4269,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.265625" customWidth="1"/>
+    <col min="16" max="16" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4521,21 +4321,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="15">
+        <v>49.36</v>
+      </c>
+      <c r="C2" s="15">
+        <v>50.67</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.52</v>
+      </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
       <c r="J2" s="4">
         <f>$B$2*D2</f>
-        <v>0</v>
+        <v>32.577600000000004</v>
       </c>
       <c r="K2" s="4">
         <f>$B$2*E2</f>
@@ -4543,32 +4353,42 @@
       </c>
       <c r="L2" s="4">
         <f>$C$2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="4" t="e">
+        <v>26.348400000000002</v>
+      </c>
+      <c r="M2" s="4">
         <f>ROUND((K2+L2)/J2-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="4" t="e">
+        <v>-0.19</v>
+      </c>
+      <c r="N2" s="4">
         <f>ROUND(($B$2*E2^2 +$C$2*F2^2)/($B$2*D2^2)-1, 2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="74">
+        <v>49.36</v>
+      </c>
+      <c r="C3" s="74">
+        <v>50.67</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.47</v>
+      </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" ref="J3:J6" si="0">$B$2*D3</f>
-        <v>0</v>
+        <v>28.628799999999998</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:K6" si="1">$B$2*E3</f>
@@ -4576,39 +4396,45 @@
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L6" si="2">$C$2*F3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="e">
+        <v>23.814899999999998</v>
+      </c>
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M6" si="3">ROUND((K3+L3)/J3-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="4" t="e">
+        <v>-0.17</v>
+      </c>
+      <c r="N3" s="4">
         <f t="shared" ref="N3:N6" si="4">ROUND(($B$2*E3^2 +$C$2*F3^2)/($B$2*D3^2)-1, 2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P3" s="38" t="s">
+        <v>-0.33</v>
+      </c>
+      <c r="P3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="38" t="e">
+      <c r="Q3" s="37">
         <f>SUM(M2:M6)/5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.46</v>
+      </c>
       <c r="I4" s="3">
         <v>3</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28.628799999999998</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="1"/>
@@ -4616,39 +4442,45 @@
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="e">
+        <v>23.308200000000003</v>
+      </c>
+      <c r="M4" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="4" t="e">
+        <v>-0.19</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="38" t="s">
+        <v>-0.35</v>
+      </c>
+      <c r="P4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="38" t="e">
+      <c r="Q4" s="37">
         <f>SUM(N2:N6)/5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.34800000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.47</v>
+      </c>
       <c r="I5" s="3">
         <v>4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.122399999999999</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
@@ -4656,32 +4488,38 @@
       </c>
       <c r="L5" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="4" t="e">
+        <v>23.814899999999998</v>
+      </c>
+      <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4" t="e">
+        <v>-0.18</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I6" s="3">
         <v>5</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31.096799999999998</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
@@ -4689,76 +4527,73 @@
       </c>
       <c r="L6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="e">
+        <v>25.335000000000001</v>
+      </c>
+      <c r="M6" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4" t="e">
+        <v>-0.19</v>
+      </c>
+      <c r="N6" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="65" t="s">
+        <v>-0.35</v>
+      </c>
+      <c r="P6" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="38" t="e">
+      <c r="Q6" s="37">
         <f>O9*SQRT(SUM((M2-Q3)^2,(M3-Q3)^2,(M4-Q3)^2,(M5-Q3)^2,(M6-Q3)^2)/20)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+        <v>1.1119999999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="38" t="e">
+      <c r="Q7" s="37">
         <f>$O$9*SQRT(SUM((N2-Q4)^2,(N3-Q4)^2,(N4-Q4)^2,(N5-Q4)^2,(N6-Q4)^2)/20)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+        <v>1.361916296987445E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N9" s="38" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="37">
         <v>2.78</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:17" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4789,204 +4624,242 @@
       <c r="L11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="66" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="15">
+        <v>49.36</v>
+      </c>
+      <c r="C12" s="15">
+        <v>102.24</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.3</v>
+      </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="4">
         <f>$B$12*D12</f>
-        <v>0</v>
+        <v>29.122399999999999</v>
       </c>
       <c r="K12" s="4">
         <f>$B$12*E12</f>
-        <v>0</v>
+        <v>-4.9359999999999999</v>
       </c>
       <c r="L12" s="4">
         <f>$C$12*F12</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4" t="e">
+        <v>30.671999999999997</v>
+      </c>
+      <c r="M12" s="4">
         <f>ROUND((K12+L12)/J12-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="60" t="e">
+        <v>-0.12</v>
+      </c>
+      <c r="N12" s="59">
         <f>ROUND(($B$12*E12^2 +$C$12*F12^2)/($B$12*D12^2)-1, 2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="38" t="s">
+        <v>-0.44</v>
+      </c>
+      <c r="P12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="38" t="e">
+      <c r="Q12" s="37">
         <f>SUM(M12:M16)/5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.17200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="74">
+        <v>49.36</v>
+      </c>
+      <c r="C13" s="74">
+        <v>102.24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-0.23</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.27</v>
+      </c>
       <c r="I13" s="3">
         <v>2</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" ref="J13:J16" si="5">$B$12*D13</f>
-        <v>0</v>
+        <v>26.654400000000003</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" ref="K13:K16" si="6">$B$12*E13</f>
-        <v>0</v>
+        <v>-11.3528</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" ref="L13:L16" si="7">$C$12*F13</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="e">
+        <v>27.604800000000001</v>
+      </c>
+      <c r="M13" s="4">
         <f t="shared" ref="M13:M16" si="8">ROUND((K13+L13)/J13-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4" t="e">
+        <v>-0.39</v>
+      </c>
+      <c r="N13" s="4">
         <f t="shared" ref="N13:N16" si="9">ROUND(($B$12*E13^2 +$C$12*F13^2)/($B$12*D13^2)-1, 2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="38" t="s">
+        <v>-0.3</v>
+      </c>
+      <c r="P13" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="38" t="e">
+      <c r="Q13" s="37">
         <f>SUM($N$12:$N$16)/5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="I14" s="3">
         <v>3</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>31.096799999999998</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5.9231999999999996</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4" t="e">
+        <v>29.649599999999996</v>
+      </c>
+      <c r="M14" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4" t="e">
+        <v>-0.24</v>
+      </c>
+      <c r="N14" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.35</v>
+      </c>
       <c r="I15" s="3">
         <v>4</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>31.096799999999998</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5.9231999999999996</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="e">
+        <v>35.783999999999999</v>
+      </c>
+      <c r="M15" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4" t="e">
+        <v>-0.04</v>
+      </c>
+      <c r="N15" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P15" s="38" t="s">
+        <v>-0.32</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="38" t="e">
+      <c r="Q15" s="37">
         <f>ROUND($O$9*SQRT(SUM(($M$12-$Q$12)^2,($M$13-$Q$12)^2,($M$14-$Q$12)^2,($M$15-$Q$12)^2,($M$16-$Q$12)^2)/20),4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.1787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-0.11</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.3</v>
+      </c>
       <c r="I16" s="3">
         <v>5</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27.148000000000003</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-5.4295999999999998</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="e">
+        <v>30.671999999999997</v>
+      </c>
+      <c r="M16" s="4">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4" t="e">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="N16" s="4">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="38" t="s">
+        <v>-0.34</v>
+      </c>
+      <c r="P16" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="38" t="e">
+      <c r="Q16" s="37">
         <f>ROUND(O9*SQRT(SUM((N12-Q13)^2,(N13-Q13)^2,(N14-Q13)^2,(N15-Q13)^2,(N16-Q13)^2)/20),4)</f>
-        <v>#DIV/0!</v>
+        <v>0.1158</v>
       </c>
     </row>
   </sheetData>
@@ -5004,25 +4877,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B15"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.3984375" customWidth="1"/>
+    <col min="15" max="15" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.73046875" customWidth="1"/>
+    <col min="17" max="17" width="12.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5058,273 +4931,297 @@
         <v>16</v>
       </c>
       <c r="M1" s="6"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="77">
+        <v>52.24</v>
+      </c>
+      <c r="C2" s="77">
+        <v>52.85</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.2</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="8">
         <f>ROUND($B$2*D2,2)</f>
-        <v>0</v>
+        <v>27.16</v>
       </c>
       <c r="I2" s="8">
         <f>($B$2+$C$2)*E2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="e">
+        <v>21.018000000000001</v>
+      </c>
+      <c r="J2" s="8">
         <f>ROUND(I2/H2-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="8" t="e">
+        <v>-0.23</v>
+      </c>
+      <c r="K2" s="8">
         <f>ROUND(($B$2+$C$2)*E2^2/$B$2/D2^2-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="78" t="e">
+        <v>-0.7</v>
+      </c>
+      <c r="L2" s="77">
         <f>-C2/(C2+B2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="36" t="s">
+        <v>-0.50290227424112666</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="35" t="e">
+      <c r="O2" s="34">
         <f>AVERAGE(J2:J6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P2" s="36" t="s">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="35" t="e">
+      <c r="Q2" s="34">
         <f>AVERAGE(K2:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.2</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4">
         <v>2</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" ref="H3:H6" si="0">ROUND($B$2*D3,2)</f>
-        <v>0</v>
+        <v>29.78</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I6" si="1">($B$2+$C$2)*E3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="e">
+        <v>21.018000000000001</v>
+      </c>
+      <c r="J3" s="8">
         <f t="shared" ref="J3:J6" si="2">ROUND(I3/H3-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="8" t="e">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K3" s="8">
         <f t="shared" ref="K3:K5" si="3">ROUND(($B$2+$C$2)*E3^2/$B$2/D3^2-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="75"/>
+        <v>-0.75</v>
+      </c>
+      <c r="L3" s="74"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.19</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4">
         <v>3</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.25</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="e">
+        <v>19.967100000000002</v>
+      </c>
+      <c r="J4" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="8" t="e">
+        <v>-0.32</v>
+      </c>
+      <c r="K4" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="36" t="s">
+        <v>-0.77</v>
+      </c>
+      <c r="L4" s="74"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="74" t="e">
+      <c r="O4" s="73">
         <f>O9*SQRT(SUM((K2-O2)^2,(K3-O2)^2,(K4-O2)^2,(K5-O2)^2,(K6-O2)^2)/20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="36" t="s">
+        <v>0.6488963069705358</v>
+      </c>
+      <c r="P4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="74" t="e">
+      <c r="Q4" s="73">
         <f>ROUND(O9*SQRT(SUM((K2-Q2)^2,(K3-Q2)^2,(K4-Q2)^2,(K5-Q2)^2,(K6-Q2)^2)/20),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.22</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4">
         <v>4</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.78</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="e">
+        <v>23.119800000000001</v>
+      </c>
+      <c r="J5" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="8" t="e">
+        <v>-0.22</v>
+      </c>
+      <c r="K5" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="75"/>
+        <v>-0.7</v>
+      </c>
+      <c r="L5" s="74"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="72"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.22</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4">
         <v>5</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.82</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="e">
+        <v>23.119800000000001</v>
+      </c>
+      <c r="J6" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="8" t="e">
+        <v>-0.25</v>
+      </c>
+      <c r="K6" s="8">
         <f>ROUND(($B$2+$C$2)*E6^2/$B$2/D6^2-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="76"/>
+        <v>-0.72</v>
+      </c>
+      <c r="L6" s="75"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="15"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="36" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="70">
+      <c r="O9" s="69">
         <v>2.78</v>
       </c>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="67"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
@@ -5360,203 +5257,227 @@
         <v>10</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="70"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+    </row>
+    <row r="11" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="77">
+        <v>52.24</v>
+      </c>
+      <c r="C11" s="77">
+        <v>104.42</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.16</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4">
         <v>1</v>
       </c>
       <c r="H11" s="8">
         <f>ROUND($B$11*D11,2)</f>
-        <v>0</v>
+        <v>32.39</v>
       </c>
       <c r="I11" s="8">
         <f>ROUND(($B$11+$C$11)*E11,2)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="e">
+        <v>25.07</v>
+      </c>
+      <c r="J11" s="8">
         <f>ROUND(I11/H11-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="8" t="e">
+        <v>-0.23</v>
+      </c>
+      <c r="K11" s="8">
         <f>ROUND(($B$11+$C$11)*E11^2/$B$11/D11^2-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="78" t="e">
+        <v>-0.8</v>
+      </c>
+      <c r="L11" s="77">
         <f>-C11/(C11+B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="36" t="s">
+        <v>-0.66653900165964508</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="70" t="e">
+      <c r="O11" s="69">
         <f>AVERAGE(J11:J15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="36" t="s">
+        <v>-0.41400000000000003</v>
+      </c>
+      <c r="P11" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="70" t="e">
+      <c r="Q11" s="69">
         <f>AVERAGE(K11:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.11</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4">
         <v>2</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" ref="H12:H15" si="4">ROUND($B$11*D12,2)</f>
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" ref="I12:I15" si="5">ROUND(($B$11+$C$11)*E12,2)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="8" t="e">
+        <v>17.23</v>
+      </c>
+      <c r="J12" s="8">
         <f t="shared" ref="J12:J15" si="6">ROUND(I12/H12-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="8" t="e">
+        <v>-0.43</v>
+      </c>
+      <c r="K12" s="8">
         <f t="shared" ref="K12:K15" si="7">ROUND(($B$11+$C$11)*E12^2/$B$11/D12^2-1,2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="75"/>
+        <v>-0.89</v>
+      </c>
+      <c r="L12" s="74"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="70"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.11</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4">
         <v>3</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29.25</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="e">
+        <v>17.23</v>
+      </c>
+      <c r="J13" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="8" t="e">
+        <v>-0.41</v>
+      </c>
+      <c r="K13" s="8">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="36" t="s">
+        <v>-0.88</v>
+      </c>
+      <c r="L13" s="74"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="70" t="e">
+      <c r="O13" s="69">
         <f>ROUND(O9*SQRT(SUM((K11-O11)^2,(K12-O11)^2,(K13-O11)^2,(K14-O11)^2,(K15-O11)^2)/20),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="36" t="s">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="P13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="70" t="e">
+      <c r="Q13" s="69">
         <f>O9*SQRT(SUM((K11-Q11)^2,(K12-Q11)^2,(K13-Q11)^2,(K14-Q11)^2,(K15-Q11)^2)/20)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.1159999999999992E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>4</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.1</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="4">
         <v>4</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31.34</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="8" t="e">
+        <v>15.67</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="8" t="e">
+        <v>-0.5</v>
+      </c>
+      <c r="K14" s="8">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="75"/>
+        <v>-0.92</v>
+      </c>
+      <c r="L14" s="74"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.1</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="4">
         <v>5</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31.34</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="8" t="e">
+        <v>15.67</v>
+      </c>
+      <c r="J15" s="8">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="8" t="e">
+        <v>-0.5</v>
+      </c>
+      <c r="K15" s="8">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="76"/>
+        <v>-0.92</v>
+      </c>
+      <c r="L15" s="75"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -5579,84 +5500,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.265625" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" customWidth="1"/>
+    <col min="15" max="15" width="16.86328125" customWidth="1"/>
+    <col min="16" max="16" width="18.59765625" customWidth="1"/>
+    <col min="17" max="17" width="17.86328125" customWidth="1"/>
+    <col min="20" max="20" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="83" t="s">
+    <row r="1" spans="1:20" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:20" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -5685,499 +5606,541 @@
       <c r="J6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="36"/>
+      <c r="L6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="51" t="s">
+      <c r="R6" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="54" t="s">
+      <c r="T6" s="53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="4">
         <f>C7</f>
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="I7" s="4">
         <f>ROUND(((E7)^2-(D7)^2)/(2*(0.8-0.15)),2)</f>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="J7" s="4">
         <f>ROUND(C7*(9.82-I7),2)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="42">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="41">
         <f>ROUND(I7-$P$8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="38">
+        <v>-0.37</v>
+      </c>
+      <c r="M7" s="37">
         <f>ROUND(J7-$Q$8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="38">
+        <v>-22.36</v>
+      </c>
+      <c r="N7" s="37">
         <f>L7^2</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="43">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="O7" s="42">
         <f t="shared" ref="O7:O13" si="0">L7*M7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="47" t="s">
+        <v>8.2731999999999992</v>
+      </c>
+      <c r="P7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="51" t="s">
+      <c r="Q7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="52">
+      <c r="R7" s="51">
         <f>SUM(N7:N13)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="42" t="e">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="S7" s="41">
         <f t="shared" ref="S7:S10" si="1">ROUND(J7-($Q$10+$P$10*I7),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="43" t="e">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="T7" s="42">
         <f>S7*S7</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.209E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.72</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="4">
         <v>2</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" ref="H8:H13" si="2">C8</f>
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:I13" si="3">ROUND(((E8)^2-(D8)^2)/(2*(0.8-0.15)),2)</f>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="J8" s="4">
         <f>ROUND(C8*(9.82-I8),2)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="42">
+        <v>25.94</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="41">
         <f t="shared" ref="L8:L13" si="4">ROUND(I8-$P$8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="38">
+        <v>-0.23</v>
+      </c>
+      <c r="M8" s="37">
         <f t="shared" ref="M8:M13" si="5">ROUND(J8-$Q$8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="38">
+        <v>-14.16</v>
+      </c>
+      <c r="N8" s="37">
         <f t="shared" ref="N8:N13" si="6">L8^2</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="43">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="O8" s="42">
         <f>L8*M8</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="48">
+        <v>3.2568000000000001</v>
+      </c>
+      <c r="P8" s="47">
         <f>ROUND(AVERAGE(I7:I13),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q8" s="47">
         <f>ROUND(AVERAGE(J7:J13),2)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="42" t="e">
+        <v>40.1</v>
+      </c>
+      <c r="S8" s="41">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="43" t="e">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="T8" s="42">
         <f t="shared" ref="T8:T13" si="7">S8*S8</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="4">
+        <v>3.55</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.84</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="4">
         <v>3</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" ref="J9:J13" si="8">ROUND(C9*(9.82-I9),2)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="42">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="38">
+        <v>-0.11</v>
+      </c>
+      <c r="M9" s="37">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="38">
+        <v>-6.8</v>
+      </c>
+      <c r="N9" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="43">
+        <v>1.21E-2</v>
+      </c>
+      <c r="O9" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="57" t="s">
+        <v>0.748</v>
+      </c>
+      <c r="P9" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="42" t="e">
+      <c r="S9" s="41">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="43" t="e">
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="T9" s="42">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.7556000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="4">
+        <v>4.41</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.96</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4">
         <v>4</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="42">
+        <v>40.79</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="M10" s="37">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="38">
+        <v>0.69</v>
+      </c>
+      <c r="N10" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="43">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O10" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="58" t="e">
+        <v>1.38E-2</v>
+      </c>
+      <c r="P10" s="57">
         <f>SUM(O7:O13)/SUM(N7:N13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="48" t="e">
+        <v>60.305882352941175</v>
+      </c>
+      <c r="Q10" s="47">
         <f>Q8-P10*P8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" s="42" t="e">
+        <v>6.9317647058823511</v>
+      </c>
+      <c r="S10" s="41">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="43" t="e">
+        <v>-0.51600000000000001</v>
+      </c>
+      <c r="T10" s="42">
         <f>S10*S10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.26625599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="4">
+        <v>5.24</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.04</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4">
         <v>5</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.24</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="42">
+        <v>47.95</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="38">
+        <v>0.12</v>
+      </c>
+      <c r="M11" s="37">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="38">
+        <v>7.85</v>
+      </c>
+      <c r="N11" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="43">
+        <v>1.44E-2</v>
+      </c>
+      <c r="O11" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="50" t="s">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="P11" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="S11" s="42" t="e">
+      <c r="S11" s="41">
         <f>ROUND(J11-($Q$10+$P$10*I11),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="43" t="e">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="T11" s="42">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.37576899999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.07</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4">
         <v>6</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.07</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="42">
+        <v>55.24</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
+        <v>0.17</v>
+      </c>
+      <c r="M12" s="37">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="38">
+        <v>15.14</v>
+      </c>
+      <c r="N12" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="43">
+        <v>2.8900000000000006E-2</v>
+      </c>
+      <c r="O12" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="48" t="e">
+        <v>2.5738000000000003</v>
+      </c>
+      <c r="P12" s="47">
         <f>SQRT(SUM(T7:T13)/5/R7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="42" t="e">
+        <v>4.0841272857581838</v>
+      </c>
+      <c r="S12" s="41">
         <f t="shared" ref="S12:S13" si="9">ROUND(J12-($Q$10+$P$10*I12),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="43" t="e">
+        <v>4.8879999999999999</v>
+      </c>
+      <c r="T12" s="42">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23.892543999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="4">
+        <v>6.71</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.18</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4">
         <v>7</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.71</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="44">
+        <v>59.72</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="43">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="45">
+        <v>0.37</v>
+      </c>
+      <c r="M13" s="44">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="45">
+        <v>19.62</v>
+      </c>
+      <c r="N13" s="44">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="49">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="O13" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="59" t="s">
+        <v>7.2594000000000003</v>
+      </c>
+      <c r="P13" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="44" t="e">
+      <c r="S13" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="46" t="e">
+        <v>-2.6930000000000001</v>
+      </c>
+      <c r="T13" s="45">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="19"/>
-      <c r="P14" s="58" t="e">
+        <v>7.2522489999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="18"/>
+      <c r="P14" s="57">
         <f>2*P12</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
+        <v>8.1682545715163677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="19"/>
-      <c r="P16" s="63" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="18"/>
+      <c r="P16" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q16" s="64" t="e">
+      <c r="Q16" s="63">
         <f>Q8-(P10*P8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.9317647058823511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -6206,487 +6169,526 @@
       <c r="J18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="39" t="s">
+      <c r="K18" s="36"/>
+      <c r="L18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="40" t="s">
+      <c r="N18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="47" t="s">
+      <c r="R18" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="53" t="s">
+      <c r="S18" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="54" t="s">
+      <c r="T18" s="53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.23</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" s="4">
         <f>C19</f>
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" ref="I19:I25" si="10">ROUND(((E19)^2-(D19)^2)/(2*(0.8-0.15)),2)</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J19" s="4">
         <f>ROUND(C19*(9.82-I19),2)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="42">
+        <v>18</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="41">
         <f>(I19-$P$20)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="38">
+        <v>-0.19</v>
+      </c>
+      <c r="M19" s="37">
         <f>(J19-$Q$20)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="38">
+        <v>-22.68</v>
+      </c>
+      <c r="N19" s="37">
         <f>L19^2</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="43">
+        <v>3.61E-2</v>
+      </c>
+      <c r="O19" s="42">
         <f t="shared" ref="O19:O25" si="11">L19*M19</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="47" t="s">
+        <v>4.3091999999999997</v>
+      </c>
+      <c r="P19" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="47" t="s">
+      <c r="Q19" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="R19" s="55">
+      <c r="R19" s="54">
         <f>SUM(N19:N25)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="42" t="e">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="S19" s="41">
         <f t="shared" ref="S19:S22" si="12">ROUND(J19-($Q$22+$P$22*I19),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="43" t="e">
+        <v>1.857</v>
+      </c>
+      <c r="T19" s="42">
         <f>S19*S19</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.4484490000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>2</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.47</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="4">
         <v>2</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" ref="H20:H25" si="13">C20</f>
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J20" s="4">
         <f>ROUND(C20*(9.82-I20),2)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="42">
+        <v>25</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="41">
         <f t="shared" ref="L20:L25" si="14">(I20-$P$20)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="38">
+        <v>-0.1</v>
+      </c>
+      <c r="M20" s="37">
         <f t="shared" ref="M20:M25" si="15">(J20-$Q$20)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="38">
+        <v>-15.68</v>
+      </c>
+      <c r="N20" s="37">
         <f t="shared" ref="N20:N25" si="16">L20^2</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="43">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="O20" s="42">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="48">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="P20" s="47">
         <f>ROUND(AVERAGE(I19:I25),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="48">
+        <v>0.23</v>
+      </c>
+      <c r="Q20" s="47">
         <f>ROUND(AVERAGE(J19:J25),2)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="42" t="e">
+        <v>40.68</v>
+      </c>
+      <c r="S20" s="41">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="43" t="e">
+        <v>-2.766</v>
+      </c>
+      <c r="T20" s="42">
         <f t="shared" ref="T20:T25" si="17">S20*S20</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.6507560000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.53</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" ref="J21:J25" si="18">ROUND(C21*(9.82-I21),2)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="42">
+        <v>32.33</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="38">
+        <v>-0.06</v>
+      </c>
+      <c r="M21" s="37">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="38">
+        <v>-8.3500000000000014</v>
+      </c>
+      <c r="N21" s="37">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="43">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="O21" s="42">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="57" t="s">
+        <v>0.50100000000000011</v>
+      </c>
+      <c r="P21" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" s="47" t="s">
+      <c r="Q21" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="S21" s="42" t="e">
+      <c r="S21" s="41">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="43" t="e">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="T21" s="42">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.36120099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>4</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="C22" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.64</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="4">
         <v>4</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="42">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="38">
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="M22" s="37">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="38">
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="N22" s="37">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="43">
+        <v>3.9999999999999959E-4</v>
+      </c>
+      <c r="O22" s="42">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="58" t="e">
+        <v>-4.0000000000000547E-3</v>
+      </c>
+      <c r="P22" s="57">
         <f>SUM(O19:O25)/SUM(N19:N25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="48" t="e">
+        <v>129.14252336448598</v>
+      </c>
+      <c r="Q22" s="47">
         <f>Q20-P22*P20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="42" t="e">
+        <v>10.977219626168221</v>
+      </c>
+      <c r="S22" s="41">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="43" t="e">
+        <v>-2.7829999999999999</v>
+      </c>
+      <c r="T22" s="42">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.7450889999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.72</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="4">
         <v>5</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="42">
+        <v>48.45</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="38">
+        <v>0.09</v>
+      </c>
+      <c r="M23" s="37">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="38">
+        <v>7.7700000000000031</v>
+      </c>
+      <c r="N23" s="37">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="43">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="O23" s="42">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="50" t="s">
+        <v>0.69930000000000025</v>
+      </c>
+      <c r="P23" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="S23" s="42" t="e">
+      <c r="S23" s="41">
         <f>ROUND(J23-($Q$22+$P$22*I23),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="43" t="e">
+        <v>-3.8530000000000002</v>
+      </c>
+      <c r="T23" s="42">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14.845609000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.79</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="4">
         <v>6</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="J24" s="4">
         <f>ROUND(C24*(9.82-I24),2)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="42">
+        <v>56.17</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="41">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="M24" s="37">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="38">
+        <v>15.490000000000002</v>
+      </c>
+      <c r="N24" s="37">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="43">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="O24" s="42">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="48" t="e">
+        <v>2.3235000000000001</v>
+      </c>
+      <c r="P24" s="47">
         <f>SQRT(SUM(T19:T25)/5/R19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="42" t="e">
+        <v>24.809689893604524</v>
+      </c>
+      <c r="S24" s="41">
         <f t="shared" ref="S24:S25" si="19">ROUND(J24-($Q$22+$P$22*I24),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="43" t="e">
+        <v>-3.8809999999999998</v>
+      </c>
+      <c r="T24" s="42">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15.062160999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="4">
+        <v>6.76</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.7</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="4">
         <v>7</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.76</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="44">
+        <v>64.36</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="43">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="45">
+        <v>6.9999999999999979E-2</v>
+      </c>
+      <c r="M25" s="44">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="45">
+        <v>23.68</v>
+      </c>
+      <c r="N25" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="49">
+        <v>4.8999999999999972E-3</v>
+      </c>
+      <c r="O25" s="48">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="59" t="s">
+        <v>1.6575999999999995</v>
+      </c>
+      <c r="P25" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="S25" s="42" t="e">
+      <c r="S25" s="41">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="46" t="e">
+        <v>14.64</v>
+      </c>
+      <c r="T25" s="45">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="19"/>
-      <c r="P26" s="58" t="e">
+        <v>214.32960000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="18"/>
+      <c r="P26" s="57">
         <f>2*P24</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="P28" s="63" t="s">
+        <v>49.619379787209049</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="18"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="18"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="P28" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" s="64" t="e">
+      <c r="Q28" s="63">
         <f>Q20-(P22*P20)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J38" s="13"/>
+        <v>10.977219626168221</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6701,189 +6703,189 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="85" t="s">
+    <row r="1" spans="1:20" ht="31.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+    </row>
+    <row r="3" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+    </row>
+    <row r="4" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="61">
         <f>'Задание 2'!I7</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="56">
+        <v>0.18</v>
+      </c>
+      <c r="B4" s="55">
         <f>'Задание 2'!J7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="59">
         <f>'Задание 2'!I8</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="60">
+        <v>0.32</v>
+      </c>
+      <c r="B5" s="59">
         <f>'Задание 2'!J8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4">
         <f>'Задание 2'!I9</f>
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="B6" s="4">
         <f>'Задание 2'!J9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4">
         <f>'Задание 2'!I10</f>
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="B7" s="4">
         <f>'Задание 2'!J10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4">
         <f>'Задание 2'!I11</f>
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="B8" s="4">
         <f>'Задание 2'!J11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
         <f>'Задание 2'!I12</f>
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="B9" s="4">
         <f>'Задание 2'!J12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
         <f>'Задание 2'!I13</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="B10" s="4">
         <f>'Задание 2'!J13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84" t="s">
+        <v>59.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61">
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+    </row>
+    <row r="13" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="60">
         <f>'Задание 2'!I19</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="61">
+        <v>0.04</v>
+      </c>
+      <c r="B13" s="60">
         <f>'Задание 2'!J19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="59">
         <f>'Задание 2'!I20</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="60">
+        <v>0.13</v>
+      </c>
+      <c r="B14" s="59">
         <f>'Задание 2'!J20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
         <f>'Задание 2'!I21</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="B15" s="4">
         <f>'Задание 2'!J21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4">
         <f>'Задание 2'!I22</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B16" s="4">
         <f>'Задание 2'!J22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40.479999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4">
         <f>'Задание 2'!I23</f>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="B17" s="4">
         <f>'Задание 2'!J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4">
         <f>'Задание 2'!I24</f>
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="B18" s="4">
         <f>'Задание 2'!J24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4">
         <f>'Задание 2'!I25</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="B19" s="4">
         <f>'Задание 2'!J25</f>
-        <v>0</v>
+        <v>64.36</v>
       </c>
     </row>
   </sheetData>
